--- a/Game/Resource/Enum/CostItemType.xlsx
+++ b/Game/Resource/Enum/CostItemType.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FFB389-7BA4-4C92-AA67-45B71EC0A149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C7CD19-8D5D-4B9B-87EF-1295D4F403F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Consume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Between</t>
+    <t>GreaterEqual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumEqual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -352,13 +356,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -374,6 +381,14 @@
       </c>
       <c r="B2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Game/Resource/Enum/CostItemType.xlsx
+++ b/Game/Resource/Enum/CostItemType.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C7CD19-8D5D-4B9B-87EF-1295D4F403F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28DBE49-C3EE-4F43-9E4D-6C15545B5960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EnumEqual</t>
+    <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +359,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
